--- a/assets/excel/products.xlsx
+++ b/assets/excel/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Desktop/derringer-leather/assets/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Desktop/derringer/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A8AAA-C30D-7F43-AA47-52EA2B55F206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A4328-70E0-7C40-9245-7817800EB494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="520" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="260">
   <si>
     <t>style</t>
   </si>
@@ -74,9 +74,6 @@
     <t>6924-00</t>
   </si>
   <si>
-    <t>Mens Premium Leather Jacket</t>
-  </si>
-  <si>
     <t>assets/images/6924-00.webp</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Ladies Jackets</t>
   </si>
   <si>
-    <t>Ladies Premium Leather Jacket</t>
-  </si>
-  <si>
     <t>assets/images/6829-00.webp</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Ladies Vests</t>
   </si>
   <si>
-    <t>Ladies Premium Leather Vest</t>
-  </si>
-  <si>
     <t>assets/images/6897-00.webp</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>Ladies Bags</t>
   </si>
   <si>
-    <t>Ladies Premium Leather Clip on Bag</t>
-  </si>
-  <si>
     <t>assets/images/2151-PL.webp</t>
   </si>
   <si>
@@ -416,9 +404,6 @@
     <t>assets/images/9737-50.webp</t>
   </si>
   <si>
-    <t>Biker Get Back Whip</t>
-  </si>
-  <si>
     <t>2053-01</t>
   </si>
   <si>
@@ -509,9 +494,6 @@
     <t>Wallets</t>
   </si>
   <si>
-    <t>Biker Chain Wallet</t>
-  </si>
-  <si>
     <t>assets/images/5707-00.webp</t>
   </si>
   <si>
@@ -599,9 +581,6 @@
     <t>Vest Extenders</t>
   </si>
   <si>
-    <t>4 inch Vest Extender</t>
-  </si>
-  <si>
     <t>assets/images/5755-00.webp</t>
   </si>
   <si>
@@ -665,9 +644,6 @@
     <t>Cowboy Hats</t>
   </si>
   <si>
-    <t>Mens Premium Leather Cowboy Hat</t>
-  </si>
-  <si>
     <t>assets/images/9212-00.webp</t>
   </si>
   <si>
@@ -749,9 +725,6 @@
     <t>Top Hats</t>
   </si>
   <si>
-    <t>Mens Premium Leather Top Hat</t>
-  </si>
-  <si>
     <t>assets/images/9227-00.webp</t>
   </si>
   <si>
@@ -795,6 +768,55 @@
   </si>
   <si>
     <t>assets/images/9236-00.webp</t>
+  </si>
+  <si>
+    <t>Experience the perfect blend of style and functionality with the Men's Premium Black (Voltage) Hoody Vented Jacket by Derringer Leather. Crafted from supple lambskin leather, this jacket features a unique hoody design, advanced venting, and ample storage options, making it an essential choice for motorcycle enthusiasts and urban adventurers. Embrace rugged elegance and unparalleled functionality designed to elevate your riding experience and urban style.</t>
+  </si>
+  <si>
+    <t>Step into refined elegance with the Men's Premium Leather Jacket by Derringer Leather. Crafted from luxurious lambskin leather in classic black, this jacket combines timeless style with practical functionality, making it an essential addition to any sophisticated wardrobe. Indulge in luxury and sophistication designed to elevate your style effortlessly while providing practical features for everyday wear.</t>
+  </si>
+  <si>
+    <t>Step into refined elegance with the Men's Premium Leather Jacket by Derringer Leather. Crafted from luxurious lambskin leather in classic brown, this jacket combines timeless style with practical functionality, making it an essential addition to any sophisticated wardrobe. Indulge in luxury and sophistication designed to elevate your style effortlessly while providing practical features for everyday wear.</t>
+  </si>
+  <si>
+    <t>Discover elegance and sophistication with the Ladies Premium Leather Jacket by Derringer Leather. Crafted from luxurious lambskin leather in classic black, this jacket combines modern design elements with timeless style, making it an essential piece for your wardrobe. Step into luxurious comfort and style designed to elevate your wardrobe with its exquisite material, modern design features, and practicality suitable for both casual and formal occasions.</t>
+  </si>
+  <si>
+    <t>Embrace classic motorcycle jacket style with the Ladies Traditional M.C. Jacket by Derringer Leather. Crafted from luxurious lambskin leather, this jacket combines traditional design elements with practical features, making it a versatile addition to your wardrobe. Step into timeless elegance and practicality designed to enhance your wardrobe with its classic motorcycle jacket design and luxurious leather construction suitable for various occasions.</t>
+  </si>
+  <si>
+    <t>Discover the perfect blend of style and functionality with the Ladies Premium (Yomi) Vented Hoody Jacket by Derringer Leather. Crafted from luxurious lambskin leather, this jacket combines a modern hoody design with premium features for comfort, protection, and practicality. Step into modern sophistication and practicality designed to elevate your wardrobe with its luxurious material, contemporary design, and advanced features suitable for various outdoor activities and urban adventures.</t>
+  </si>
+  <si>
+    <t>Indulge in timeless elegance with the Style # 6955.00 Ladies Premium Leather Jacket by Derringer Leather. Crafted from luxurious lambskin leather in classic black, this jacket combines sophistication with practicality. It features two outside zippered pockets and two inside pockets, offering ample storage space without compromising its sleek silhouette. The jacket is adorned with antique brass hardware, adding a touch of vintage charm to its design. Available in sizes ranging from XS to 5XL and meticulously crafted in Pakistan, this jacket exemplifies superior craftsmanship and enduring style.</t>
+  </si>
+  <si>
+    <t>Ladies premium traditional vest, crafted from luxurious lambskin leather. Its timeless design includes a one-panel back and adjustable side laces, offering both style and versatility. This traditional vest is tailored for women who appreciate understated elegance and functional design.</t>
+  </si>
+  <si>
+    <t>Ladies premium leather vest crafted from luxurious lambskin. Designed by Derringer Leather, renowned for quality, this vest features antique brass hardware and a classic black color, making it a versatile addition to any wardrobe. This leather vest combines sophistication with functionality, ideal for women who appreciate both style and utility.</t>
+  </si>
+  <si>
+    <t>Ladies premium leather vest crafted from luxurious lambskin. Designed by Derringer Leather, renowned for quality, this vest features antique brass hardware and a classic red color, making it a versatile addition to any wardrobe. This leather vest combines sophistication with functionality, ideal for women who appreciate both style and utility.</t>
+  </si>
+  <si>
+    <t>Elevate your riding gear with the Ladies Leather Clip-On Bag from Unik, meticulously crafted from luxurious cowhide leather. Designed for both functionality and style, this bag features silver hardware accents, two hook and loop clips for secure attachment, and a versatile 54" shoulder strap. Whether used on or off the bike, it offers convenient storage and a touch of elegance to your ensemble.</t>
+  </si>
+  <si>
+    <t>Elevate your riding experience with our meticulously crafted biker get back whips, expertly fashioned from premium cowhide leather. Our premium cowhide leather biker get back whips combine classic craftsmanship with modern durability, offering bikers a stylish and functional accessory that complements any ride.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevate your biker style with the Biker Chain Wallet, a rugged accessory that blends functionality with distinctive flair. Crafted from premium leather, these wallets feature a chain attachment that adds a bold statement while securing your essentials. Ideal for motorcycle riders and enthusiasts, they offer multiple compartments for cards, cash, and coins, ensuring practicality on the go. The durable construction and secure closure make them a reliable companion for everyday use, whether riding or exploring the city streets with confidence and style.
+</t>
+  </si>
+  <si>
+    <t>Transform your wardrobe with Vest Extenders, designed for both comfort and style. These extenders are crafted to enhance the fit and versatility of your vests, ensuring a perfect adjustment that complements any outfit.</t>
+  </si>
+  <si>
+    <t>Embrace rugged elegance with the Men's Premium Cowhide Leather Cowboy Hat, designed to combine classic Western style with modern craftsmanship. Crafted from supple cowhide leather and accented with a durable metal wire around the brim, this hat offers both functionality and distinctive flair. Whether worn for practical protection or as a fashion statement, it embodies the spirit of the American frontier while catering to contemporary tastes.</t>
+  </si>
+  <si>
+    <t>Elevate your attire with the Men's Premium Cowhide Leather Top Hat, a symbol of sophistication and timeless style. Crafted from the finest cowhide leather, this hat exudes luxury and durability, making it a standout accessory for any occasion. Its sleek silhouette and impeccable craftsmanship make it a versatile choice, whether for formal gatherings or as a distinctive addition to everyday wear.</t>
   </si>
 </sst>
 </file>
@@ -833,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -843,6 +865,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9F191-DF66-5B48-9A4C-40566E4CA7E4}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1239,15 +1264,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>219.99</v>
@@ -1256,15 +1281,15 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>219.99</v>
@@ -1273,877 +1298,877 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>209.99</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>199.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>199.99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>199.99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>199.99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>249.99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>199.99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>199.99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>199.99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>229.99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>89.99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
         <v>89.99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>89.99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>129.99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>129.99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>29.99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>29.99</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
         <v>29.99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2">
         <v>29.99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>29.99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
         <v>29.99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2">
         <v>29.99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2">
         <v>29.99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2">
         <v>29.99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2">
         <v>29.99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2">
         <v>29.99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2">
         <v>29.99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2">
         <v>29.99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2">
         <v>29.99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2">
         <v>29.99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2">
         <v>29.99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2">
         <v>29.99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2">
         <v>29.99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2">
         <v>29.99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2">
         <v>29.99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2">
         <v>29.99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2">
         <v>29.99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2">
         <v>29.99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2">
         <v>29.99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2">
         <v>29.99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2">
         <v>29.99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2">
         <v>29.99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2">
         <v>29.99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2">
         <v>29.99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2">
         <v>29.99</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2">
         <v>29.99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2">
         <v>29.99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2">
         <v>29.99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2">
         <v>29.99</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2">
         <v>29.99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
         <v>29.99</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2157,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
@@ -2165,7 +2190,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2">
         <v>29.99</v>
@@ -2174,15 +2199,15 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2">
         <v>29.99</v>
@@ -2191,15 +2216,15 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2">
         <v>29.99</v>
@@ -2208,15 +2233,15 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2">
         <v>29.99</v>
@@ -2225,15 +2250,15 @@
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2">
         <v>29.99</v>
@@ -2242,15 +2267,15 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2">
         <v>29.99</v>
@@ -2259,15 +2284,15 @@
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2">
         <v>29.99</v>
@@ -2276,15 +2301,15 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2">
         <v>29.99</v>
@@ -2293,15 +2318,15 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2">
         <v>29.99</v>
@@ -2310,15 +2335,15 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2">
         <v>29.99</v>
@@ -2327,15 +2352,15 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2">
         <v>29.99</v>
@@ -2344,15 +2369,15 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B69" s="2">
         <v>29.99</v>
@@ -2361,15 +2386,15 @@
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2">
         <v>29.99</v>
@@ -2378,15 +2403,15 @@
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2">
         <v>29.99</v>
@@ -2395,775 +2420,775 @@
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B74" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="B75" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="76" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="B76" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="B77" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="B78" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="B79" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="B80" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="B81" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="82" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="B82" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="83" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="B83" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="B84" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="B85" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B86" s="2">
         <v>9.99</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B87" s="2">
         <v>9.99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2">
         <v>9.99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B89" s="2">
         <v>9.99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2">
         <v>9.99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2">
         <v>9.99</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B92" s="2">
         <v>9.99</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B93" s="2">
         <v>9.99</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B94" s="2">
         <v>9.99</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2">
         <v>9.99</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2">
         <v>49.99</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B97" s="2">
         <v>49.99</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B98" s="2">
         <v>49.99</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B99" s="2">
         <v>49.99</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B100" s="2">
         <v>49.99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B101" s="2">
         <v>49.99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B102" s="2">
         <v>49.99</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2">
         <v>49.99</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B104" s="2">
         <v>49.99</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B105" s="2">
         <v>49.99</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B106" s="2">
         <v>49.99</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B107" s="2">
         <v>49.99</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B108" s="2">
         <v>49.99</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B109" s="2">
         <v>49.99</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B110" s="2">
         <v>49.99</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B111" s="2">
         <v>49.99</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2">
         <v>49.99</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B113" s="2">
         <v>49.99</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B114" s="2">
         <v>49.99</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B115" s="2">
         <v>49.99</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B116" s="2">
         <v>49.99</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
